--- a/database/industries/folad/faspa/product/quarterly.xlsx
+++ b/database/industries/folad/faspa/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5115D-61EF-480B-817D-2917EE564073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -82,9 +81,6 @@
     <t>ورق,بندل,کلاف</t>
   </si>
   <si>
-    <t>لوله های گازی و صنعتی</t>
-  </si>
-  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -98,9 +94,6 @@
   </si>
   <si>
     <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>انواع لوله گازی و صنعتی</t>
   </si>
   <si>
     <t>سود سرمایه گذاری ها</t>
@@ -165,11 +158,14 @@
   <si>
     <t>سود ناخالص</t>
   </si>
+  <si>
+    <t>لوله</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,10 +614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -912,7 +910,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>16</v>
@@ -951,7 +949,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -988,7 +986,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
@@ -1027,7 +1025,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>16</v>
@@ -1066,10 +1064,10 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -1105,7 +1103,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -1144,10 +1142,10 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
@@ -1183,7 +1181,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>16</v>
@@ -1222,7 +1220,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1259,10 +1257,10 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -1298,7 +1296,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>16</v>
@@ -1337,10 +1335,10 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -1376,7 +1374,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>16</v>
@@ -1415,10 +1413,10 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
@@ -1454,7 +1452,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>16</v>
@@ -1493,7 +1491,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>16</v>
@@ -1532,7 +1530,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1614,7 +1612,7 @@
     </row>
     <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1742,10 +1740,10 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
@@ -1859,7 +1857,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>16</v>
@@ -1898,7 +1896,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1935,7 +1933,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>16</v>
@@ -1974,7 +1972,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>16</v>
@@ -2013,10 +2011,10 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
@@ -2052,7 +2050,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>16</v>
@@ -2091,10 +2089,10 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
@@ -2130,7 +2128,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>16</v>
@@ -2169,10 +2167,10 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
@@ -2208,7 +2206,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>16</v>
@@ -2247,7 +2245,7 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2284,7 +2282,7 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>16</v>
@@ -2323,7 +2321,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>16</v>
@@ -2362,7 +2360,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>16</v>
@@ -2401,7 +2399,7 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -2483,7 +2481,7 @@
     </row>
     <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2538,7 +2536,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
@@ -2574,10 +2572,10 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
@@ -2616,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
@@ -2655,7 +2653,7 @@
         <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -2691,10 +2689,10 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
@@ -2730,10 +2728,10 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
@@ -2769,10 +2767,10 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
@@ -2808,10 +2806,10 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
@@ -2847,10 +2845,10 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
@@ -2886,10 +2884,10 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -2925,10 +2923,10 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
@@ -2964,10 +2962,10 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
@@ -3003,10 +3001,10 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
@@ -3042,10 +3040,10 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -3081,10 +3079,10 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
@@ -3120,10 +3118,10 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
@@ -3159,7 +3157,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -3241,7 +3239,7 @@
     </row>
     <row r="80" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3296,7 +3294,7 @@
         <v>15</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
@@ -3332,10 +3330,10 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -3374,7 +3372,7 @@
         <v>18</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
@@ -3413,7 +3411,7 @@
         <v>19</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -3449,10 +3447,10 @@
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
@@ -3488,10 +3486,10 @@
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -3527,10 +3525,10 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
@@ -3566,10 +3564,10 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
@@ -3605,10 +3603,10 @@
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -3644,10 +3642,10 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
@@ -3683,10 +3681,10 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
@@ -3722,10 +3720,10 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
@@ -3761,10 +3759,10 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
@@ -3800,10 +3798,10 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
@@ -3839,10 +3837,10 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
@@ -3923,7 +3921,7 @@
     </row>
     <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3978,7 +3976,7 @@
         <v>15</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
@@ -4014,10 +4012,10 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
@@ -4056,7 +4054,7 @@
         <v>18</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9">
@@ -4095,7 +4093,7 @@
         <v>19</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
@@ -4131,10 +4129,10 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
@@ -4170,10 +4168,10 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
@@ -4209,10 +4207,10 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
@@ -4248,10 +4246,10 @@
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
@@ -4287,10 +4285,10 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
@@ -4326,10 +4324,10 @@
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
@@ -4365,10 +4363,10 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
@@ -4404,10 +4402,10 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
@@ -4443,10 +4441,10 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
@@ -4482,7 +4480,7 @@
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -4564,7 +4562,7 @@
     </row>
     <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4619,7 +4617,7 @@
         <v>15</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
@@ -4655,10 +4653,10 @@
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
@@ -4697,7 +4695,7 @@
         <v>18</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
@@ -4736,7 +4734,7 @@
         <v>19</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
@@ -4772,10 +4770,10 @@
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
@@ -4811,10 +4809,10 @@
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
@@ -4850,10 +4848,10 @@
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
@@ -4889,10 +4887,10 @@
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
@@ -4928,10 +4926,10 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
@@ -4967,10 +4965,10 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
@@ -5006,10 +5004,10 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
@@ -5045,10 +5043,10 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
@@ -5084,10 +5082,10 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
@@ -5123,7 +5121,7 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>

--- a/database/industries/folad/faspa/product/quarterly.xlsx
+++ b/database/industries/folad/faspa/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A26160-1202-4C22-95BE-B8E5C233E8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="48">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -81,6 +82,9 @@
     <t>ورق,بندل,کلاف</t>
   </si>
   <si>
+    <t>لوله های گازی و صنعتی</t>
+  </si>
+  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -94,6 +98,9 @@
   </si>
   <si>
     <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>انواع لوله گازی و صنعتی</t>
   </si>
   <si>
     <t>سود سرمایه گذاری ها</t>
@@ -158,14 +165,11 @@
   <si>
     <t>سود ناخالص</t>
   </si>
-  <si>
-    <t>لوله</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,19 +618,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,7 +643,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,7 +660,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,7 +677,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +692,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +709,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,7 +726,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +741,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -791,7 +793,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -830,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -869,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -908,9 +910,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>16</v>
@@ -947,9 +949,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -984,9 +986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
@@ -1023,9 +1025,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>16</v>
@@ -1062,12 +1064,12 @@
         <v>14522</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -1101,9 +1103,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -1140,12 +1142,12 @@
         <v>39786</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
@@ -1179,9 +1181,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>16</v>
@@ -1218,9 +1220,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1255,12 +1257,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -1294,9 +1296,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>16</v>
@@ -1333,12 +1335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -1372,9 +1374,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>16</v>
@@ -1411,12 +1413,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
@@ -1450,9 +1452,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>16</v>
@@ -1489,9 +1491,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>16</v>
@@ -1528,9 +1530,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1565,7 +1567,7 @@
         <v>54450</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1580,7 +1582,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1595,7 +1597,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1610,9 +1612,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1647,7 +1649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1662,7 +1664,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1738,12 +1740,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
@@ -1777,7 +1779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
@@ -1855,9 +1857,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>16</v>
@@ -1894,9 +1896,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1931,9 +1933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>16</v>
@@ -1970,9 +1972,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>16</v>
@@ -2009,12 +2011,12 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
@@ -2048,9 +2050,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>16</v>
@@ -2087,12 +2089,12 @@
         <v>34175</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
@@ -2126,9 +2128,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>16</v>
@@ -2165,12 +2167,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
@@ -2204,9 +2206,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>16</v>
@@ -2243,9 +2245,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2280,9 +2282,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>16</v>
@@ -2319,9 +2321,9 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>16</v>
@@ -2358,9 +2360,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>16</v>
@@ -2397,9 +2399,9 @@
         <v>-672</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -2434,7 +2436,7 @@
         <v>42991</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2449,7 +2451,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2464,7 +2466,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2479,9 +2481,9 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2516,7 +2518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2531,12 +2533,12 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
@@ -2570,12 +2572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
@@ -2609,12 +2611,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
@@ -2648,12 +2650,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -2687,12 +2689,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
@@ -2726,12 +2728,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
@@ -2765,12 +2767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
@@ -2804,12 +2806,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
@@ -2843,12 +2845,12 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
@@ -2882,12 +2884,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -2921,12 +2923,12 @@
         <v>7781908</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
@@ -2960,12 +2962,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
@@ -2999,12 +3001,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
@@ -3038,12 +3040,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -3077,12 +3079,12 @@
         <v>699873</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
@@ -3116,12 +3118,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
@@ -3155,9 +3157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -3192,7 +3194,7 @@
         <v>8495313</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3207,7 +3209,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3222,7 +3224,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3237,9 +3239,9 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3274,7 +3276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3289,12 +3291,12 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
@@ -3328,12 +3330,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -3367,12 +3369,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
@@ -3406,12 +3408,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -3445,12 +3447,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
@@ -3484,12 +3486,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -3523,12 +3525,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
@@ -3562,12 +3564,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
@@ -3601,12 +3603,12 @@
         <v>2547440</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -3640,12 +3642,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
@@ -3679,12 +3681,12 @@
         <v>227707623</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
@@ -3718,12 +3720,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
@@ -3757,12 +3759,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
@@ -3796,12 +3798,12 @@
         <v>168644096</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
@@ -3835,12 +3837,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
@@ -3874,7 +3876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3889,7 +3891,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3904,7 +3906,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3919,9 +3921,9 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3956,7 +3958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3971,12 +3973,12 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
@@ -4010,12 +4012,12 @@
         <v>-5797</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
@@ -4049,12 +4051,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9">
@@ -4088,12 +4090,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
@@ -4127,12 +4129,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
@@ -4166,12 +4168,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
@@ -4205,12 +4207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
@@ -4244,12 +4246,12 @@
         <v>-180714</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
@@ -4283,12 +4285,12 @@
         <v>-7037426</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
@@ -4322,12 +4324,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
@@ -4361,12 +4363,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
@@ -4400,12 +4402,12 @@
         <v>-809700</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
@@ -4439,12 +4441,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
@@ -4478,9 +4480,9 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -4515,7 +4517,7 @@
         <v>-8023441</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4530,7 +4532,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4545,7 +4547,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4560,9 +4562,9 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4597,7 +4599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4612,12 +4614,12 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
@@ -4651,12 +4653,12 @@
         <v>-5797</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
@@ -4690,12 +4692,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
@@ -4729,12 +4731,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
@@ -4768,12 +4770,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
@@ -4807,12 +4809,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
@@ -4846,12 +4848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
@@ -4885,12 +4887,12 @@
         <v>-167182</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
@@ -4924,12 +4926,12 @@
         <v>744482</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
@@ -4963,12 +4965,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
@@ -5002,12 +5004,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
@@ -5041,12 +5043,12 @@
         <v>-109827</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
@@ -5080,12 +5082,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
@@ -5119,9 +5121,9 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
